--- a/Final_pjt1/WBS(v1).xlsx
+++ b/Final_pjt1/WBS(v1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="24315" windowHeight="13845" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="13845" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -1414,7 +1414,7 @@
   <x:dimension ref="B3:W12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="X16" activeCellId="0" sqref="X16:X16"/>
+      <x:selection activeCell="I18" activeCellId="0" sqref="I18:I18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
